--- a/Output/FedAcqTrends/Customer/NATIONAL_ENDOWMENT_FOR_THE_HUMANITIES/NATIONAL_ENDOWMENT_FOR_THE_HUMANITIES_Contracts.xlsx
+++ b/Output/FedAcqTrends/Customer/NATIONAL_ENDOWMENT_FOR_THE_HUMANITIES/NATIONAL_ENDOWMENT_FOR_THE_HUMANITIES_Contracts.xlsx
@@ -7,12 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="FYQ" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Veh" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="PSR" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -69,14 +72,47 @@
   </si>
   <si>
     <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PricingUCA.sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PricingUCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost or Effort-Based</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&amp;M/LH/FPLOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed-Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products (All)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services (Non-R&amp;D)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -112,9 +148,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,4 +932,1066 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>O1</f>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>O2</f>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="n">
+        <v>61648</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>26664</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="n">
+        <v>268420</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>O3</f>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>892013.26</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>317775.63</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>-45887.51</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>245615.25</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>16000</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>612461.98</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>267632.1</v>
+      </c>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>O4</f>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="n">
+        <v>88523.2</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>O5</f>
+      </c>
+      <c r="N5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>1279194.4938</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>1745002.3192</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>2174734.4625</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>3359951.9786</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>641244.3538</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>853281.13</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>348190.07</v>
+      </c>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>O6</f>
+      </c>
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>163047.1597</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>139380.96</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>O7</f>
+      </c>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2" t="n">
+        <v>65000</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="n">
+        <v>177650</v>
+      </c>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>O8</f>
+      </c>
+      <c r="N8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f>Sum(P2:P7)</f>
+      </c>
+      <c r="Q8" s="2" t="str">
+        <f>Sum(Q2:Q7)</f>
+      </c>
+      <c r="R8" s="2" t="str">
+        <f>Sum(R2:R7)</f>
+      </c>
+      <c r="S8" s="2" t="str">
+        <f>Sum(S2:S7)</f>
+      </c>
+      <c r="T8" s="2" t="str">
+        <f>Sum(T2:T7)</f>
+      </c>
+      <c r="U8" s="2" t="str">
+        <f>Sum(U2:U7)</f>
+      </c>
+      <c r="V8" s="2" t="str">
+        <f>Sum(V2:V7)</f>
+      </c>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>O11</f>
+      </c>
+      <c r="N11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>O12</f>
+      </c>
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2" t="n">
+        <v>71350.8235411404</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>29833.8632446859</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2" t="n">
+        <v>261438.038871163</v>
+      </c>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>O13</f>
+      </c>
+      <c r="N13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="2" t="n">
+        <v>1045894.32996786</v>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>367790.567444276</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v>-51342.6979440127</v>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>256851.311298465</v>
+      </c>
+      <c r="T13" s="2" t="n">
+        <v>16000</v>
+      </c>
+      <c r="U13" s="2" t="n">
+        <v>596531.029484947</v>
+      </c>
+      <c r="V13" s="2" t="n">
+        <v>255073.785510769</v>
+      </c>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>O14</f>
+      </c>
+      <c r="N14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2" t="n">
+        <v>99046.9938037044</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>O15</f>
+      </c>
+      <c r="N15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>1499868.13872198</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>2019649.50292175</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>2433270.72261215</v>
+      </c>
+      <c r="S15" s="2" t="n">
+        <v>3513658.34003908</v>
+      </c>
+      <c r="T15" s="2" t="n">
+        <v>641244.3538</v>
+      </c>
+      <c r="U15" s="2" t="n">
+        <v>831086.153166568</v>
+      </c>
+      <c r="V15" s="2" t="n">
+        <v>331851.669632154</v>
+      </c>
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>O16</f>
+      </c>
+      <c r="N16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>191174.400084136</v>
+      </c>
+      <c r="Q16" s="2" t="n">
+        <v>161318.230631241</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>O17</f>
+      </c>
+      <c r="N17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>-5862.54922918892</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2" t="n">
+        <v>72727.3143903608</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2" t="n">
+        <v>169313.987357974</v>
+      </c>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>O18</f>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>O1</f>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>O2</f>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>277570.2994</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>509298.49</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>79582.5604</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>120212.47</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>122496.51</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>124823.94</v>
+      </c>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>O3</f>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>2051684.6141</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>1754508.4192</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>2229451.5921</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>3485354.7586</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>534747.8438</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>1609339.17</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>793472.17</v>
+      </c>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>O4</f>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="3" t="str">
+        <f>Sum(P2:P3)</f>
+      </c>
+      <c r="Q4" s="3" t="str">
+        <f>Sum(Q2:Q3)</f>
+      </c>
+      <c r="R4" s="3" t="str">
+        <f>Sum(R2:R3)</f>
+      </c>
+      <c r="S4" s="3" t="str">
+        <f>Sum(S2:S3)</f>
+      </c>
+      <c r="T4" s="3" t="str">
+        <f>Sum(T2:T3)</f>
+      </c>
+      <c r="U4" s="3" t="str">
+        <f>Sum(U2:U3)</f>
+      </c>
+      <c r="V4" s="3" t="str">
+        <f>Sum(V2:V3)</f>
+      </c>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>O7</f>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>O8</f>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>325453.908958642</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>589457.349626253</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>89043.4752338566</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>125711.781145216</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>122496.51</v>
+      </c>
+      <c r="U8" s="3" t="n">
+        <v>121577.103337202</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>O9</f>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>2405620.41058614</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>2030651.77491215</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>2494492.72087303</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>3644797.87019233</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>534747.8438</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>1567478.11818548</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>756239.442500897</v>
+      </c>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>O10</f>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>113378.4604</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>127045.2402</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>803792.7754</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>2160278.3806</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>150998.875</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>627513.95</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>467288.66</v>
+      </c>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>-175</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4" t="n">
+        <v>11711</v>
+      </c>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2216051.4531</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>2136761.669</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1505241.3771</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1445288.848</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>506245.4788</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>1106649.16</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>314472.51</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="4" t="str">
+        <f>Sum(N2:N4)</f>
+      </c>
+      <c r="O5" s="4" t="str">
+        <f>Sum(O2:O4)</f>
+      </c>
+      <c r="P5" s="4" t="str">
+        <f>Sum(P2:P4)</f>
+      </c>
+      <c r="Q5" s="4" t="str">
+        <f>Sum(Q2:Q4)</f>
+      </c>
+      <c r="R5" s="4" t="str">
+        <f>Sum(R2:R4)</f>
+      </c>
+      <c r="S5" s="4" t="str">
+        <f>Sum(S2:S4)</f>
+      </c>
+      <c r="T5" s="4" t="str">
+        <f>Sum(T2:T4)</f>
+      </c>
+      <c r="U5" s="4" t="str">
+        <f>Sum(U2:U4)</f>
+      </c>
+      <c r="V5" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>132937.361124929</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>147040.982923241</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>899349.075095638</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>2259103.76015673</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>150998.875</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>611191.477730039</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>445361.70150163</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>-205.189223021612</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4" t="n">
+        <v>11161.4754064128</v>
+      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="4" t="n">
+        <v>2598342.14764288</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <v>2473068.14161516</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <v>1684187.12101125</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <v>1511405.89118081</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <v>506245.4788</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <v>1077863.74379264</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>299716.265592853</v>
+      </c>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>